--- a/biology/Botanique/Cystoseira/Cystoseira.xlsx
+++ b/biology/Botanique/Cystoseira/Cystoseira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cystoseira, les cystoseires, est un genre d'algues brunes de la famille des Sargassaceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Cystoseira vient des mots grecs κύστις / kýstis, « vessie ; poche », et σειρά / seirá, « corde ; chaine »[3], littéralement « vessies en chaine », en référence à la présence de pneumatocystes tout le long des frondes qui permettent leur flottaison.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Cystoseira vient des mots grecs κύστις / kýstis, « vessie ; poche », et σειρά / seirá, « corde ; chaine », littéralement « vessies en chaine », en référence à la présence de pneumatocystes tout le long des frondes qui permettent leur flottaison.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe une quarantaine d'espèces dont le statut d'espèce a été accepté[4]. Le lectotype du genre est Cystoseira concatenata (Linnaeus) C.Agardh, aujourd'hui décrit comme Cystoseira foeniculacea (Linnaeus) Greville[5].
-Selon AlgaeBase                                           (7 juin 2018)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une quarantaine d'espèces dont le statut d'espèce a été accepté. Le lectotype du genre est Cystoseira concatenata (Linnaeus) C.Agardh, aujourd'hui décrit comme Cystoseira foeniculacea (Linnaeus) Greville.
+Selon AlgaeBase                                           (7 juin 2018) :
 Cystoseira abies-marina (S.G.Gmelin) C.Agardh
 Cystoseira algeriensis Feldmann
 Cystoseira amentacea (C.Agardh) Bory
@@ -632,7 +648,7 @@
 Cystoseira usneoides (Linnaeus) M.Roberts
 Cystoseira wildpretii Nizamuddin
 Cystoseira zosteroides (Turner) C.Agardh
-Selon ITIS      (7 juin 2018)[6] :
+Selon ITIS      (7 juin 2018) :
 Cystoseira baccata
 Cystoseira barbata
 Cystoseira compressa
@@ -650,7 +666,7 @@
 Cystoseira sedoides
 Cystoseira setchellii Gardn.
 Cystoseira tamariscifolia
-Selon World Register of Marine Species                               (7 juin 2018)[2] :
+Selon World Register of Marine Species                               (7 juin 2018) :
 Cystoseira abies-marina (S.G.Gmelin) C.Agardh, 1820
 Cystoseira algeriensis Feldmann, 1945
 Cystoseira amentacea (C.Agardh) Bory de Saint-Vincent, 1832
@@ -769,9 +785,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quelques espèces sont présentes le long des côtes atlantiques, principalement C. baccata, C. nodicaulis, C. foeniculacea, C. humilis et C. tamariscifolia. Néanmoins, la majorité des espèces se retrouvent en Méditerranée, où le genre a connu une radiation adaptative importante, résultant en une trentaine d'espèces[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quelques espèces sont présentes le long des côtes atlantiques, principalement C. baccata, C. nodicaulis, C. foeniculacea, C. humilis et C. tamariscifolia. Néanmoins, la majorité des espèces se retrouvent en Méditerranée, où le genre a connu une radiation adaptative importante, résultant en une trentaine d'espèces.
 </t>
         </is>
       </c>
@@ -800,10 +818,12 @@
           <t>Ecologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se développent dans l'étage infralittoral[7] ou dans les cuvettes de l'étage médiolittoral[7],[8]. En mer Méditerranée, les différentes espèces de cystoseires sont réparties verticalement sur le littoral et façonnent la physionomie de la végétation de cette mer[9].
-Elles jouent un rôle primordial dans la structure des communautés du littoral, en étant la base d'habitats dont la diversité spécifique est importante[10]. Certaines espèces forment des canopées en eaux peu profondes (Cystoseira amentacea est l'espèce la plus commune)[10] et d'autres espèces sont la base d'écosystèmes en eaux plus profondes (25-47 m)[11]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se développent dans l'étage infralittoral ou dans les cuvettes de l'étage médiolittoral,. En mer Méditerranée, les différentes espèces de cystoseires sont réparties verticalement sur le littoral et façonnent la physionomie de la végétation de cette mer.
+Elles jouent un rôle primordial dans la structure des communautés du littoral, en étant la base d'habitats dont la diversité spécifique est importante. Certaines espèces forment des canopées en eaux peu profondes (Cystoseira amentacea est l'espèce la plus commune) et d'autres espèces sont la base d'écosystèmes en eaux plus profondes (25-47 m). 
 </t>
         </is>
       </c>
@@ -832,10 +852,12 @@
           <t>Etat des populations et protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cystoseira sont en déclin en mer Méditerranée[12].
-C. amentacea, C. mediterranea, C. sedoides, C. spinosa et C. zosteroides sont protégées par la Convention de Berne[13].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cystoseira sont en déclin en mer Méditerranée.
+C. amentacea, C. mediterranea, C. sedoides, C. spinosa et C. zosteroides sont protégées par la Convention de Berne.
 </t>
         </is>
       </c>
